--- a/output/DEchart.xlsx
+++ b/output/DEchart.xlsx
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.386100000000001</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.0112</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2684</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25.3678</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>24.8605</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.8493</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.5662</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.3384</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2831</v>
@@ -1094,28 +1094,28 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.761</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.864</v>
       </c>
       <c r="U3" t="n">
-        <v>20.8016</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>8.8787</v>
       </c>
       <c r="W3" t="n">
-        <v>20.0406</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>8.8787</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.3714</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>20.0406</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -1154,22 +1154,22 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>24.8605</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.5221</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.6251</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>10.9082</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>9.8935</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2537</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>12.9376</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>23.0847</v>
       </c>
       <c r="BD3" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>19.2796</v>
       </c>
       <c r="BL3" t="n">
-        <v>20.5479</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0</v>
+        <v>23.5921</v>
       </c>
       <c r="BQ3" t="n">
         <v>24.8605</v>
@@ -1250,7 +1250,7 @@
         <v>22.07</v>
       </c>
       <c r="BS3" t="n">
-        <v>18.0112</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>22.07</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>11.4155</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>21.8163</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>8.6251</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>22.8311</v>
       </c>
       <c r="CL3" t="n">
-        <v>0</v>
+        <v>25.3678</v>
       </c>
       <c r="CM3" t="n">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>10.9082</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>16.4891</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
         <v>0</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>14.7133</v>
       </c>
       <c r="DL3" t="n">
-        <v>3.8052</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>2.5368</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>1.5221</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14.8909</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>17.198</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>14.4715</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>8.179500000000001</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>14.6812</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>13.8423</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>15.9396</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>18.2466</v>
+        <v>0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>15.3104</v>
       </c>
       <c r="BV4" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>6.7114</v>
       </c>
       <c r="BY4" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>18.2466</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
@@ -1650,13 +1650,13 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>12.3742</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>12.3742</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>18.6661</v>
       </c>
       <c r="CQ4" t="n">
-        <v>16.1493</v>
+        <v>0</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>6.7114</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
         <v>0</v>
@@ -1728,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>20.9732</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>20.344</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.2097</v>
+        <v>0</v>
       </c>
       <c r="DI4" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.9205</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>28.1928</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.788</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>9.8675</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>26.7832</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>25.6555</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>18.6073</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>2.8193</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.4096</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>12.4048</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0</v>
+        <v>1.1277</v>
       </c>
       <c r="BZ5" t="n">
-        <v>22.2723</v>
+        <v>0</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.9735</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>12.6868</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>3.3831</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0</v>
+        <v>21.7085</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>18.8892</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.0463</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>44.1281</v>
       </c>
       <c r="K6" t="n">
-        <v>39.8577</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -2228,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>49.1103</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.847</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -2246,188 +2246,188 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>56.2278</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>14.9466</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>64.7687</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>4.9822</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
         <v>39.1459</v>
       </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>58.363</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>63.3452</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0</v>
-      </c>
       <c r="CS6" t="n">
         <v>0</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="DB6" t="n">
-        <v>54.0925</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2465,22 +2465,22 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>9.252700000000001</v>
       </c>
       <c r="DF6" t="n">
         <v>0</v>
       </c>
       <c r="DG6" t="n">
-        <v>17.0819</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>0.7117</v>
       </c>
       <c r="DI6" t="n">
-        <v>0</v>
+        <v>19.9288</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>37.7224</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
@@ -2489,19 +2489,19 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>0</v>
+        <v>35.5872</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>4.2705</v>
+        <v>0</v>
       </c>
       <c r="DP6" t="n">
         <v>41.2811</v>
       </c>
       <c r="DQ6" t="n">
-        <v>14.9466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4.8733</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>62.3782</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.4288</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>26.3158</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>67.25149999999999</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2625,140 +2625,140 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>33.1384</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>83.8207</v>
+      </c>
+      <c r="CF7" t="n">
         <v>57.5049</v>
       </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41.9103</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
       <c r="CG7" t="n">
         <v>0</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>33.1384</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>78.9474</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>65.3021</v>
       </c>
       <c r="CU7" t="n">
-        <v>66.27679999999999</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>51.6569</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>58.4307</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>23.3723</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>98.4975</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>65.10850000000001</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1.6694</v>
       </c>
       <c r="AY8" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>78.4641</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>135.2254</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>75.12520000000001</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>46.7446</v>
+        <v>0</v>
       </c>
       <c r="DJ8" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0</v>
+        <v>16.6945</v>
       </c>
       <c r="DO8" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>60.6277</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>49.2154</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>22.1113</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>56.3481</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>58.4879</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>66.3338</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>50.6419</v>
       </c>
       <c r="BT9" t="n">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>56.3481</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>63.4807</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="CX9" t="n">
-        <v>38.5164</v>
+        <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>22.8245</v>
       </c>
       <c r="CZ9" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>69.18689999999999</v>
+        <v>0</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -3681,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>39.9113</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>86.47450000000001</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -3735,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>37.694</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>77.6053</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>83.1486</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>56.541</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>11.0865</v>
+        <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>103.1042</v>
+        <v>0</v>
       </c>
       <c r="BQ10" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>80.93129999999999</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0</v>
+        <v>14.4124</v>
       </c>
       <c r="CI10" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>88.6918</v>
+        <v>0</v>
       </c>
       <c r="CX10" t="n">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>84.2572</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>26.1845</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>118.4539</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>26.1845</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>122.1945</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.4813</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>53.616</v>
       </c>
       <c r="BG11" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>39.9002</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>14.9626</v>
       </c>
       <c r="CH11" t="n">
         <v>0</v>
@@ -4240,19 +4240,19 @@
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>112.2195</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>0</v>
+        <v>64.8379</v>
       </c>
       <c r="CN11" t="n">
         <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>53.616</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="DK11" t="n">
-        <v>72.3192</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>70.71550000000001</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.2446</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>24.1265</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>77.371</v>
       </c>
       <c r="BA12" t="n">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>75.7072</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>72.3794</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>3.3278</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>49.0849</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>54.0765</v>
       </c>
       <c r="CT12" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0</v>
+        <v>12.4792</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -4722,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.989</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>70.7182</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.6575</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>86.1878</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>15.4696</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>60.7735</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>37.5691</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>47.5138</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>51.9337</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -4977,13 +4977,13 @@
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>110.4972</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>89.50279999999999</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>75.13809999999999</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="DG13" t="n">
-        <v>0</v>
+        <v>26.5193</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>55.2486</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.8573</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>42.4301</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -5332,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>12.5362</v>
+        <v>0</v>
       </c>
       <c r="CI14" t="n">
-        <v>19.2864</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>50.1446</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>77.1456</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>52.0733</v>
       </c>
       <c r="CY14" t="n">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0</v>
+        <v>20.2507</v>
       </c>
     </row>
     <row r="15">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>37.9487</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>18.4615</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -5495,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>65.64100000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>3.0769</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -5516,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>36.9231</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>33.8462</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>29.7436</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>76.92310000000001</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>91.2821</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>5.1282</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>20.5128</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>56.4103</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>46.1538</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>102.5641</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>13.3333</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
         <v>0</v>
